--- a/InventorModel/XAxis/XCarriage BOM.xlsx
+++ b/InventorModel/XAxis/XCarriage BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="14895"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -31,7 +31,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\HotEnds\E3DChimera\E3DChimera.iam</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\HotEnds\E3DChimera\E3DChimera.iam</t>
         </r>
       </text>
     </comment>
@@ -45,7 +45,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Electronics\EndStops\EndStopOptical.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Electronics\EndStops\EndStopOptical.ipt</t>
         </r>
       </text>
     </comment>
@@ -59,7 +59,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\Bearing\BearingLinear\BearingLinearLMU8.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\XAxis\XCarriageBeltClipRound.ipt</t>
         </r>
       </text>
     </comment>
@@ -73,7 +73,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\XAxis\XCarriageBeltClipRound.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\BoltWashers\BoltWasher3\BoltWasher3x16.iam</t>
         </r>
       </text>
     </comment>
@@ -87,7 +87,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Electronics\Fans\FanRadial50mm.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\Nuts\Nut3.ipt</t>
         </r>
       </text>
     </comment>
@@ -101,7 +101,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\XAxis\ChimeraXCarriage4.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\Bearing\BearingLinear\BearingLinearLMUW8.ipt</t>
         </r>
       </text>
     </comment>
@@ -115,7 +115,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\BoltWashers\BoltWasher3\BoltWasher3x16.iam</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\XAxis\ChimeraXCarriage6.ipt</t>
         </r>
       </text>
     </comment>
@@ -129,7 +129,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\Nuts\Nut3.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\Bolts\SHCS\SHCS3\SHCS3x10.ipt</t>
         </r>
       </text>
     </comment>
@@ -143,7 +143,49 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\Bolts\SHCS\SHCS3\SHCS3x8.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Electronics\Fans\Fan40mm.ipt</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\XAxis\ChimeraXCarriage5FanDuct.ipt</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\XAxis\ChimeraXCarriage5FanDuctMirrored.ipt</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\BoltWashers\BoltWasher3\BoltWasher3x10.iam</t>
         </r>
       </text>
     </comment>
@@ -152,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>PART PREVIEW</t>
   </si>
@@ -172,9 +214,6 @@
     <t>TITLE</t>
   </si>
   <si>
-    <t>AUTHOR</t>
-  </si>
-  <si>
     <t>CATEGORY</t>
   </si>
   <si>
@@ -199,106 +238,109 @@
     <t>E3D Chimera</t>
   </si>
   <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>E3D</t>
+  </si>
+  <si>
+    <t>http://e3d-online.com/Chimera</t>
+  </si>
+  <si>
+    <t>EndStopOptical</t>
+  </si>
+  <si>
+    <t>End Stop Optical</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>RobotDigg</t>
+  </si>
+  <si>
+    <t>http://www.robotdigg.com/product/155/Optical-Endstop-w/-Lead-Wires-for-3D-Printers</t>
+  </si>
+  <si>
+    <t>XCarriageBeltClipRound</t>
+  </si>
+  <si>
+    <t>X Carriage Belt Clip</t>
+  </si>
+  <si>
+    <t>Print</t>
+  </si>
+  <si>
     <t>Jack</t>
   </si>
   <si>
-    <t>Hardware</t>
-  </si>
-  <si>
-    <t>E3D</t>
-  </si>
-  <si>
-    <t>http://e3d-online.com/Chimera</t>
-  </si>
-  <si>
-    <t>EndStopOptical</t>
-  </si>
-  <si>
-    <t>End Stop Optical</t>
-  </si>
-  <si>
-    <t>Electronics</t>
-  </si>
-  <si>
-    <t>RobotDigg</t>
-  </si>
-  <si>
-    <t>http://www.robotdigg.com/product/155/Optical-Endstop-w/-Lead-Wires-for-3D-Printers</t>
-  </si>
-  <si>
-    <t>BearingLinearLMU8</t>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>BOLTWASHER3X16</t>
+  </si>
+  <si>
+    <t>Bolt + Washer 3x16</t>
+  </si>
+  <si>
+    <t>Misumi</t>
+  </si>
+  <si>
+    <t>M3Nut</t>
+  </si>
+  <si>
+    <t>M3 Nut</t>
+  </si>
+  <si>
+    <t>KNTR3</t>
+  </si>
+  <si>
+    <t>http://us.misumi-ec.com/vona2/detail/110300250540/</t>
+  </si>
+  <si>
+    <t>BearingLinearLMUW8</t>
   </si>
   <si>
     <t>Bearing Linear LMU8</t>
   </si>
   <si>
-    <t>t_clevj</t>
-  </si>
-  <si>
-    <t>Misumi</t>
-  </si>
-  <si>
     <t>http://us.misumi-ec.com/vona2/detail/110300026540/</t>
   </si>
   <si>
-    <t>XCarriageBeltClipRound</t>
-  </si>
-  <si>
-    <t>X Carriage Belt Clip</t>
-  </si>
-  <si>
-    <t>Print</t>
-  </si>
-  <si>
-    <t>FanRadial50mm</t>
-  </si>
-  <si>
-    <t>Fan Radial 50x10</t>
-  </si>
-  <si>
-    <t>http://www.robotdigg.com/product/194/Blow-Fan-12V-50mm-for-3D-Prints-Cooling</t>
-  </si>
-  <si>
-    <t>ChimeraXCarriage4</t>
-  </si>
-  <si>
-    <t>X Carriage</t>
-  </si>
-  <si>
-    <t>BOLTWASHER3X16</t>
-  </si>
-  <si>
-    <t>Bolt + Washer 3x16</t>
-  </si>
-  <si>
-    <t>M3Nut</t>
-  </si>
-  <si>
-    <t>M3 Nut</t>
-  </si>
-  <si>
-    <t>KNTR3</t>
-  </si>
-  <si>
-    <t>http://us.misumi-ec.com/vona2/detail/110300250540/</t>
-  </si>
-  <si>
-    <t>SHCS3x8</t>
-  </si>
-  <si>
-    <t>SHCS 3x8</t>
-  </si>
-  <si>
-    <t>CB3-8</t>
+    <t>ChimeraXCarriage6</t>
+  </si>
+  <si>
+    <t>M3x10SHCS</t>
+  </si>
+  <si>
+    <t>SHCS 3x10</t>
+  </si>
+  <si>
+    <t>CB3-10</t>
   </si>
   <si>
     <t>http://us.misumi-ec.com/vona2/detail/110300239070/</t>
   </si>
   <si>
+    <t>Fan40mm</t>
+  </si>
+  <si>
+    <t>ChimeraXCarriage5FanDuct</t>
+  </si>
+  <si>
+    <t>ChimeraXCarriage5FanDuctMirrored</t>
+  </si>
+  <si>
+    <t>BoltWasher3x10</t>
+  </si>
+  <si>
+    <t>Bolt + Washer 3x10</t>
+  </si>
+  <si>
     <t xml:space="preserve">ASSEMBLY PARTS TOTAL = </t>
   </si>
   <si>
-    <t>File created: 2/2/2015 16:36:39</t>
+    <t>File created: 19/3/2015 8:33:30</t>
   </si>
 </sst>
 </file>
@@ -737,29 +779,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="82" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="82" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,16 +834,13 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -815,29 +853,26 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -850,275 +885,333 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C4" s="3">
         <v>4</v>
       </c>
       <c r="D4" s="4">
-        <v>5.85</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4">
         <f>SUM(C4*D4)</f>
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="3">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
       <c r="D5" s="4">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="E5" s="4">
         <f>SUM(C5*D5)</f>
-        <v>0</v>
+        <v>5.04</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C6" s="3">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4">
-        <v>0</v>
+        <v>0.56989999999999996</v>
       </c>
       <c r="E6" s="4">
         <f>SUM(C6*D6)</f>
-        <v>0</v>
+        <v>10.258199999999999</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="4">
-        <v>0</v>
+        <v>5.85</v>
       </c>
       <c r="E7" s="4">
         <f>SUM(C7*D7)</f>
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D8" s="4">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="E8" s="4">
         <f>SUM(C8*D8)</f>
-        <v>5.88</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="3">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D9" s="4">
-        <v>0.56989999999999996</v>
+        <v>0.26</v>
       </c>
       <c r="E9" s="4">
         <f>SUM(C9*D9)</f>
-        <v>9.1183999999999994</v>
+        <v>0.52</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="4">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="E10" s="4">
         <f>SUM(C10*D10)</f>
-        <v>0.52</v>
-      </c>
-      <c r="F10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <f>SUM(C11*D11)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <f>SUM(C12*D12)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="2" t="s">
+      <c r="C13" s="3">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="E13" s="4">
+        <f>SUM(C13*D13)</f>
+        <v>1.68</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D11" s="5" t="s">
+      <c r="G13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="6">
-        <f>SUM(E2:E10)</f>
-        <v>40.918399999999998</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E14" s="6">
+        <f>SUM(E2:E13)</f>
+        <v>31.198199999999996</v>
+      </c>
+      <c r="F14" t="s">
         <v>48</v>
       </c>
     </row>
